--- a/src/main/resources/excel/Job.xlsx
+++ b/src/main/resources/excel/Job.xlsx
@@ -20,414 +20,942 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="312">
   <si>
     <t xml:space="preserve">Hi, are you ready to learn how to add today?</t>
   </si>
   <si>
+    <t xml:space="preserve">Hola, ¿estás listo para aprender a sumar hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haɪ, ɑr ju ˈrɛdi tu lɜrn haʊ tu æd təˈdeɪ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, I’m ready!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Sí, estoy listo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪm ˈrɛdi!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great! Let’s start with something simple.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Genial! Empecemos con algo simple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡreɪt! lɛts stɑrt wɪð ˈsʌmθɪŋ ˈsɪmpəl.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do you see these blocks here?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Ves estos bloques aquí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju si ðiz blɑks hir?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, I see a lot of blocks.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sí, veo muchos bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ si ə lɑt ʌv blɑks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We’re just going to use a few to begin with.</t>
   </si>
   <si>
+    <t xml:space="preserve">Solo vamos a usar algunos para empezar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wir ʤʌst ˈɡoʊɪŋ tu juz ə fju tu bɪˈɡɪn wɪð.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I have three blocks here</t>
   </si>
   <si>
+    <t xml:space="preserve">Tengo tres bloques aquí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ hæv θri blɑks hir</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are three blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay tres bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr θri blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">hat’s right! Now, I’m going to add two more blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Así es! Ahora, voy a agregar dos bloques más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hæts raɪt! naʊ, aɪm ˈɡoʊɪŋ tu æd tu mɔr blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can you count how many blocks there are now?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes contar cuántos bloques hay ahora?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju kaʊnt haʊ ˈmɛni blɑks ðɛr ɑr naʊ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">One, two, three, four, five. There are five blocks!</t>
   </si>
   <si>
+    <t xml:space="preserve">Uno, dos, tres, cuatro, cinco. ¡Hay cinco bloques!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʌn, tu, θri, fɔr, faɪv. ðɛr ɑr faɪv blɑks!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Awesome! So, if we start with three blocks and add two more</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Genial! Entonces, si comenzamos con tres bloques y agregamos dos más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɑsəm! soʊ, ɪf wi stɑrt wɪð θri blɑks ænd æd tu mɔr</t>
+  </si>
+  <si>
     <t xml:space="preserve">we get a total of five blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">obtenemos un total de cinco bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi ɡɛt ə ˈtoʊtəl ʌv faɪv blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">This is how we write it as an addition: 3 + 2 = 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Así es como lo escribimos como una suma: 3 + 2 = 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɪs ɪz haʊ wi raɪt ɪt æz ən əˈdɪʃən: 3 + 2 = 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">So, I just count all of them after I add more blocks?</t>
   </si>
   <si>
+    <t xml:space="preserve">Entonces, ¿simplemente los cuento todos después de agregar más bloques?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soʊ, aɪ ʤʌst kaʊnt ɔl ʌv ðɛm ˈæftər aɪ æd mɔr blɑks?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exactly! That’s what adding means</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Exactamente! Eso es lo que significa sumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪɡˈzæktli! ðæts wɑt ˈædɪŋ minz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do you want to try another one?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Quieres probar con otra cosa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">du ju wɑnt tu traɪ əˈnʌðər wʌn?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, I want to try!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Sí, quiero intentarlo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪ wɑnt tu traɪ!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okay, here are four blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Bien, aquí hay cuatro bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌoʊˈkeɪ, hir ɑr fɔr blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adds three more blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Agrega tres bloques más</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ædz θri mɔr blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Now there are one, two, three, four, five, six, seven. Seven blocks!</t>
   </si>
   <si>
+    <t xml:space="preserve">Ahora hay uno, dos, tres, cuatro, cinco, seis, siete. ¡Siete bloques!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naʊ ðɛr ɑr wʌn, tu, θri, fɔr, faɪv, sɪks, ˈsɛvən. ˈsɛvən blɑks!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect! You just added four and three together</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Perfecto! Acabas de sumar cuatro y tres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈpɜrˌfɪkt! ju ʤʌst ˈædɪd fɔr ænd θri təˈɡɛðər</t>
+  </si>
+  <si>
     <t xml:space="preserve">How would we write that as an addition?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Cómo escribiríamos eso como una suma?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ wʊd wi raɪt ðæt æz ən əˈdɪʃən?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Would it be 4 + 3 = 7?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Sería 4 + 3 = 7?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʊd ɪt bi 4 + 3 = 7?</t>
+  </si>
+  <si>
     <t xml:space="preserve">That’s right! You did a great job adding the blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Así es! Hiciste un gran trabajo al sumar los bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts raɪt! ju dɪd ə ɡreɪt ʤɑb ˈædɪŋ ðə blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adding is fun!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Sumar es divertido!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈædɪŋ ɪz fʌn!</t>
+  </si>
+  <si>
     <t xml:space="preserve">I’m glad you think it’s fun! Let’s do a few more examples to practice.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Me alegra que pienses que es divertido! Hagamos algunos ejemplos más para practicar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɡlæd ju θɪŋk ɪts fʌn! lɛts du ə fju mɔr ɪɡˈzæmpəlz tu ˈpræktəs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hello! Are you ready to learn how to subtract today?</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Hola! ¿Estás listo para aprender a restar hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">həˈloʊ! ɑr ju ˈrɛdi tu lɜrn haʊ tu səbˈtrækt təˈdeɪ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fantastic! Let’s look at these blocks.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Fantástico! Veamos estos bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fænˈtæstɪk! lɛts lʊk æt ðiz blɑks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Let’s start by counting these blocks together</t>
   </si>
   <si>
+    <t xml:space="preserve">Comencemos contando estos bloques juntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛts stɑrt baɪ ˈkaʊntɪŋ ðiz blɑks təˈɡɛðər</t>
+  </si>
+  <si>
     <t xml:space="preserve">One, two, three... ten. There are ten blocks.</t>
   </si>
   <si>
+    <t xml:space="preserve">Uno, dos, tres... diez. Hay diez bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʌn, tu, θri... tɛn. ðɛr ɑr tɛn blɑks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">That's right, ten blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Así es, diez bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts raɪt, tɛn blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Now, if I take away three blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Ahora, si quito tres bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naʊ, ɪf aɪ teɪk əˈweɪ θri blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">how many do we have left?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿cuántos nos quedan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ˈmɛni du wi hæv lɛft?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Let me count... one, two, three, four, five, six, seven. Seven blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Déjame contar... uno, dos, tres, cuatro, cinco, seis, siete. Siete bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛt mi kaʊnt... wʌn, tu, θri, fɔr, faɪv, sɪks, ˈsɛvən. ˈsɛvən blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Excellent counting! We started with ten blocks and took away three</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Excelente conteo! Empezamos con diez bloques y quitamos tres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɛksələnt ˈkaʊntɪŋ! wi ˈstɑrtɪd wɪð tɛn blɑks ænd tʊk əˈweɪ θri</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many blocks are left?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Cuántos bloques quedan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ˈmɛni blɑks ɑr lɛft?</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are seven blocks left.</t>
   </si>
   <si>
+    <t xml:space="preserve">Quedan siete bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr ˈsɛvən blɑks lɛft.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exactly. We can write that as a subtraction equation: 10 - 3 = 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Exactamente. Podemos escribir eso como una ecuación de resta: 10 - 3 = 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪɡˈzæktli. wi kæn raɪt ðæt æz ə səbˈtrækʃən ɪˈkweɪʒən: 10 - 3 = 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">So, subtraction means taking some away?</t>
   </si>
   <si>
+    <t xml:space="preserve">Entonces, ¿restar significa quitar algo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soʊ, səbˈtrækʃən minz ˈteɪkɪŋ sʌm əˈweɪ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yes, exactly. It's like removing pieces from a whole. Want to try one?</t>
   </si>
   <si>
+    <t xml:space="preserve">Sí, exactamente. Es como quitar partes de un todo. ¿Quieres probar uno?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, ɪɡˈzæktli. ɪts laɪk riˈmuvɪŋ ˈpisəz frʌm ə hoʊl. wɑnt tu traɪ wʌn?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Here, you have eight blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Aquí tienes ocho bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hir, ju hæv eɪt blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">If I take away five blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Si quito cinco bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪf aɪ teɪk əˈweɪ faɪv blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">let's see... one, two, three. Three blocks left!</t>
   </si>
   <si>
+    <t xml:space="preserve">veamos... uno, dos, tres. ¡Quedan tres bloques!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛts si... wʌn, tu, θri. θri blɑks lɛft!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect! You subtracted five from eight</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Perfecto! Restaste cinco de ocho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈpɜrˌfɪkt! ju səbˈtræktɪd faɪv frʌm eɪt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can you tell me how to write that as an equation?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes decirme cómo escribir eso como una ecuación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju tɛl mi haʊ tu raɪt ðæt æz ən ɪˈkweɪʒən?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Would it be 8 - 5 = 3?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Sería 8 - 5 = 3?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wʊd ɪt bi 8 - 5 = 3?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Right on! You’ve done a fantastic job with this subtraction.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Correcto! Has hecho un trabajo fantástico con esta resta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raɪt ɑn! juv dʌn ə fænˈtæstɪk ʤɑb wɪð ðɪs səbˈtrækʃən.</t>
+  </si>
+  <si>
     <t xml:space="preserve">It's pretty easy once you get it!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Es bastante fácil una vez que la entiendes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈprɪti ˈizi wʌns ju ɡɛt ɪt!</t>
+  </si>
+  <si>
     <t xml:space="preserve">I’m glad to hear that! Let’s try a few more to make sure you’ve got it.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Me alegra escuchar eso! Probemos algunas operaciones más para asegurarnos de que lo entiendes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɡlæd tu hir ðæt! lɛts traɪ ə fju mɔr tu meɪk ʃʊr juv ɡɑt ɪt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hi there! Are you ready to start learning about multiplication today?</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Hola! ¿Estás listo para comenzar a aprender sobre la multiplicación hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haɪ ðɛr! ɑr ju ˈrɛdi tu stɑrt ˈlɜrnɪŋ əˈbaʊt ˌmʌltəpləˈkeɪʃən təˈdeɪ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Awesome! Let's use these blocks for our lesson</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Genial! Usemos estos bloques para nuestra lección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɑsəm! lɛts juz ðiz blɑks fɔr ˈaʊər ˈlɛsən</t>
+  </si>
+  <si>
     <t xml:space="preserve">First, let's count how many groups we have here.</t>
   </si>
   <si>
+    <t xml:space="preserve">Primero, contemos cuántos grupos tenemos aquí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fɜrst, lɛts kaʊnt haʊ ˈmɛni ɡrups wi hæv hir.</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are five groups.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay cinco grupos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr faɪv ɡrups.</t>
+  </si>
+  <si>
     <t xml:space="preserve">And how many blocks are in each group?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Y cuántos bloques hay en cada grupo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ænd haʊ ˈmɛni blɑks ɑr ɪn iʧ ɡrup?</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are three blocks in each group.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay tres bloques en cada grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr θri blɑks ɪn iʧ ɡrup.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect! Multiplication is a way to add the same number several times quickly</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Perfecto! La multiplicación es una forma de sumar el mismo número varias veces rápidamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈpɜrˌfɪkt! ˌmʌltəpləˈkeɪʃən ɪz ə weɪ tu æd ðə seɪm ˈnʌmbər ˈsɛvrəl taɪmz ˈkwɪkli</t>
+  </si>
+  <si>
     <t xml:space="preserve">So, if we have five groups of three blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Entonces, si tenemos cinco grupos de tres bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soʊ, ɪf wi hæv faɪv ɡrups ʌv θri blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">instead of adding three plus three and so on, we can multiply</t>
   </si>
   <si>
+    <t xml:space="preserve">en lugar de sumar tres más tres y así sucesivamente, podemos multiplicar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪnˈstɛd ʌv ˈædɪŋ θri plʌs θri ænd soʊ ɑn, wi kæn ˈmʌltəˌplaɪ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can you guess how many blocks there are in total?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes adivinar cuántos bloques hay en total?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju ɡɛs haʊ ˈmɛni blɑks ðɛr ɑr ɪn ˈtoʊtəl?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Um, not sure how to do that yet</t>
   </si>
   <si>
+    <t xml:space="preserve">Um, todavía no estoy seguro de cómo hacer eso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʌm, nɑt ʃʊr haʊ tu du ðæt jɛt</t>
+  </si>
+  <si>
     <t xml:space="preserve">No problem! Let’s do it together</t>
   </si>
   <si>
+    <t xml:space="preserve">¡No hay problema! Hagámoslo juntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noʊ ˈprɑbləm! lɛts du ɪt təˈɡɛðər</t>
+  </si>
+  <si>
     <t xml:space="preserve">We multiply the number of groups by the number of blocks in each group</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiplicamos la cantidad de grupos por la cantidad de bloques en cada grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi ˈmʌltəˌplaɪ ðə ˈnʌmbər ʌv ɡrups baɪ ðə ˈnʌmbər ʌv blɑks ɪn iʧ ɡrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">5 groups times 3 blocks in each group. 5 times 3</t>
   </si>
   <si>
+    <t xml:space="preserve">5 grupos por 3 bloques en cada grupo. 5 por 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 ɡrups taɪmz 3 blɑks ɪn iʧ ɡrup. 5 taɪmz 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can you try counting all the blocks to check our answer?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes intentar contar todos los bloques para verificar nuestra respuesta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju traɪ ˈkaʊntɪŋ ɔl ðə blɑks tu ʧɛk ˈaʊər ˈænsər?</t>
+  </si>
+  <si>
     <t xml:space="preserve">That’s right! So, 5 times 3 equals 15. We can write that as 5 × 3 = 15</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Así es! Entonces, 5 por 3 es igual a 15. Podemos escribirlo como 5 × 3 = 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðæts raɪt! soʊ, 5 taɪmz 3 ˈikwəlz 15. wi kæn raɪt ðæt æz 5 × 3 = 15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oh, I see! Multiplication is like fast adding!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Ah, ya veo! ¡La multiplicación es como sumar rápidamente!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oʊ, aɪ si! ˌmʌltəpləˈkeɪʃən ɪz laɪk fæst ˈædɪŋ!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exactly! It's a quick way to add the same number several times</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Exactamente! Es una forma rápida de sumar el mismo número varias veces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪɡˈzæktli! ɪts ə kwɪk weɪ tu æd ðə seɪm ˈnʌmbər ˈsɛvrəl taɪmz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Want to try another one by yourself?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Quieres intentar otra cosa tú solo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑnt tu traɪ əˈnʌðər wʌn baɪ jərˈsɛlf?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Here, let’s use these blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Vamos a usar estos bloques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hir, lɛts juz ðiz blɑks</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many groups do we have this time?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Cuántos grupos tenemos esta vez?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ˈmɛni ɡrups du wi hæv ðɪs taɪm?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Four group</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuatro grupos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fɔr ɡrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">And how many blocks in each group?</t>
   </si>
   <si>
+    <t xml:space="preserve">ænd haʊ ˈmɛni blɑks ɪn iʧ ɡrup?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Four blocks in each group.</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuatro bloques en cada grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fɔr blɑks ɪn iʧ ɡrup.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Right. Now, multiply the number of groups by the number of blocks in each group.</t>
   </si>
   <si>
+    <t xml:space="preserve">Correcto. Ahora, multiplica la cantidad de grupos por la cantidad de bloques en cada grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raɪt. naʊ, ˈmʌltəˌplaɪ ðə ˈnʌmbər ʌv ɡrups baɪ ðə ˈnʌmbər ʌv blɑks ɪn iʧ ɡrup.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Four times four... Let me count. Sixteen blocks!</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuatro por cuatro... Déjame contar. ¡Dieciséis bloques!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fɔr taɪmz fɔr... lɛt mi kaʊnt. sɪkˈstin blɑks!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect! You got it</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Perfecto! Lo has entendido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈpɜrˌfɪkt! ju ɡɑt ɪt</t>
+  </si>
+  <si>
     <t xml:space="preserve">4 times 4 is indeed 16</t>
   </si>
   <si>
+    <t xml:space="preserve">4 por 4 es, de hecho, 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 taɪmz 4 ɪz ɪnˈdid 16</t>
+  </si>
+  <si>
     <t xml:space="preserve">You're really catching on to multiplication.</t>
   </si>
   <si>
+    <t xml:space="preserve">Estás aprendiendo a multiplicar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jʊr ˈrɪli ˈkæʧɪŋ ɑn tu ˌmʌltəpləˈkeɪʃən.</t>
+  </si>
+  <si>
     <t xml:space="preserve">It’s actually pretty fun!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡En realidad es muy divertido!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪts ˈækʧuəli ˈprɪti fʌn!</t>
+  </si>
+  <si>
     <t xml:space="preserve">I'm glad you think so! Let's keep practicing with a few more examples.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Me alegra que pienses así! Sigamos practicando con algunos ejemplos más.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɡlæd ju θɪŋk soʊ! lɛts kip ˈpræktəsɪŋ wɪð ə fju mɔr ɪɡˈzæmpəlz.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Good morning! Ready to tackle division today?</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Buenos días! ¿Listo para abordar la división hoy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡʊd ˈmɔrnɪŋ! ˈrɛdi tu ˈtækəl dɪˈvɪʒən təˈdeɪ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yeah, I think so!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Sí, creo que sí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jæ, aɪ θɪŋk soʊ!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great! Let's start with these 12 blocks here.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Genial! Empecemos con estos 12 bloques aquí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɡreɪt! lɛts stɑrt wɪð ðiz 12 blɑks hir.</t>
+  </si>
+  <si>
     <t xml:space="preserve">First, can you count these blocks for me?</t>
   </si>
   <si>
+    <t xml:space="preserve">Primero, ¿puedes contar estos bloques por mí?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fɜrst, kæn ju kaʊnt ðiz blɑks fɔr mi?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sure! One, two, three... twelve. There are twelve blocks.</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Claro! Uno, dos, tres... doce. Hay doce bloques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃʊr! wʌn, tu, θri... twɛlv. ðɛr ɑr twɛlv blɑks.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Excellent! Now, let’s say we want to divide these twelve blocks into groups of three</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Excelente! Ahora, digamos que queremos dividir estos doce bloques en grupos de tres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈɛksələnt! naʊ, lɛts seɪ wi wɑnt tu dɪˈvaɪd ðiz twɛlv blɑks ˈɪntu ɡrups ʌv θri</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can you help me do that?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Puedes ayudarme a hacer eso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn ju hɛlp mi du ðæt?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okay. (Begins to group the blocks into sets of three).</t>
   </si>
   <si>
+    <t xml:space="preserve">De acuerdo. (Comienza a agrupar los bloques en grupos de tres).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌoʊˈkeɪ. (bɪˈɡɪnz tu ɡrup ðə blɑks ˈɪntu sɛts ʌv θri).</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many groups do you have?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Cuántos grupos tienes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haʊ ˈmɛni ɡrups du ju hæv?</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are four groups of three.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hay cuatro grupos de tres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr fɔr ɡrups ʌv θri.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Perfect! So, when we divide twelve by three, we get four</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Perfecto! Entonces, cuando dividimos doce por tres, obtenemos cuatro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈpɜrˌfɪkt! soʊ, wɛn wi dɪˈvaɪd twɛlv baɪ θri, wi ɡɛt fɔr</t>
+  </si>
+  <si>
     <t xml:space="preserve">We can write that as 12 ÷ 3 = 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Podemos escribir eso como 12 ÷ 3 = 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wi kæn raɪt ðæt æz 12 ÷ 3 = 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">So division is like making equal groups out of a bigger group?</t>
   </si>
   <si>
+    <t xml:space="preserve">Entonces, ¿la división es como hacer grupos iguales a partir de un grupo más grande?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soʊ dɪˈvɪʒən ɪz laɪk ˈmeɪkɪŋ ˈikwəl ɡrups aʊt ʌv ə ˈbɪɡər ɡrup?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exactly right! It’s about evenly distributing something into smaller groups</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Exactamente correcto! Se trata de distribuir algo de manera uniforme en grupos más pequeños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪɡˈzæktli raɪt! ɪts əˈbaʊt ˈivənli dɪˈstrɪbjutɪŋ ˈsʌmθɪŋ ˈɪntu ˈsmɔlər ɡrups</t>
+  </si>
+  <si>
     <t xml:space="preserve">Want to try one yourself?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Quieres intentarlo tú mismo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wɑnt tu traɪ wʌn jərˈsɛlf?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alright, we have 16 blocks this time</t>
   </si>
   <si>
+    <t xml:space="preserve">Muy bien, tenemos 16 bloques esta vez.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˌɔlˈraɪt, wi hæv 16 blɑks ðɪs taɪm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Let’s divide them into groups of four</t>
   </si>
   <si>
+    <t xml:space="preserve">Dividámoslos en grupos de cuatro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lɛts dɪˈvaɪd ðɛm ˈɪntu ɡrups ʌv fɔr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Done! There are four groups</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Listo! Hay cuatro grupos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dʌn! ðɛr ɑr fɔr ɡrups</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nice job! And how many blocks are in each group?</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Buen trabajo! ¿Y cuántos bloques hay en cada grupo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naɪs ʤɑb! ænd haʊ ˈmɛni blɑks ɑr ɪn iʧ ɡrup?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Right, so 16 divided by 4 is also 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Correcto, entonces 16 dividido por 4 también es 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raɪt, soʊ 16 dɪˈvaɪdəd baɪ 4 ɪz ˈɔlsoʊ 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">It seems like you’re getting the hang of division!</t>
   </si>
   <si>
+    <t xml:space="preserve">¡Parece que estás aprendiendo a dividir!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt simz laɪk jʊr ˈɡɛtɪŋ ðə hæŋ ʌv dɪˈvɪʒən!</t>
+  </si>
+  <si>
     <t xml:space="preserve">It makes more sense when you see it like this.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tiene más sentido cuando lo ves así.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪt meɪks mɔr sɛns wɛn ju si ɪt laɪk ðɪs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I’m glad to hear that! Let's practice with a few more different numbers to make sure you’re comfortable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Good morning, everyone! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's start today's daily Scrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remember, let's keep our updates quick and focused.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam, why don’t you start us off?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks! Yesterday, I worked on optimizing our database queries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I managed to reduce the response time from 5 seconds to 2 seconds for our main data retrieval query.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today, I'll be documenting these changes and starting on the security updates for our login module.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great progress, Adam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarah, you're up next.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yesterday, I finished the UI adjustments for our dashboard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Today, I plan to start integrating Adam's optimized queries into it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">However, I need a quick help to estimate how long it might take if I have to adjust similar queries for five more modules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given the improvements Adam made.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sure, let’s quickly tackle that estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam, can you help?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of course. If the optimization took me 3 hours for one query and it sped up the process by 60%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we can use a rule of three to estimate the effort for five queries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If one took 3 hours, five should take roughly 15 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assuming each query takes about the same time and effort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanks, Adam. I’ll factor in some buffer time for testing and unexpected issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but that helps set a baseline.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sounds good, Sarah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make sure to update the sprint backlog with your new estimates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom, how about your updates?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm still debugging the payment integration issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It's taking longer than expected,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">but I should wrap it up by this afternoon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okay, keep us posted, and let us know if you need any assistance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's all remember to update our tasks in the Scrum tool after this meeting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any blockers anyone wants to discuss further?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Various responses, no major blockers)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alright, if there are no further issues, let’s get to work and have a productive day. Thanks, everyone!</t>
+    <t xml:space="preserve">¡Me alegra escuchar eso! Practiquemos con algunos números diferentes para asegurarnos de que te sientas cómodo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪm ɡlæd tu hir ðæt! lɛts ˈpræktəs wɪð ə fju mɔr ˈdɪfərənt ˈnʌmbərz tu meɪk ʃʊr jʊr ˈkʌmfərtəbəl.</t>
   </si>
 </sst>
 </file>
@@ -442,6 +970,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -501,8 +1030,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,700 +1162,1482 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A159"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="98.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="98.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="93.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="85.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>27</v>
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>28</v>
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>29</v>
+      <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>30</v>
+      <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>31</v>
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>32</v>
+      <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>33</v>
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>34</v>
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>35</v>
+      <c r="A38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>36</v>
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>37</v>
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>38</v>
+      <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>39</v>
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>40</v>
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>41</v>
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>42</v>
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>43</v>
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>44</v>
+      <c r="A47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>45</v>
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>46</v>
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>47</v>
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>49</v>
+      <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>50</v>
+      <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>51</v>
+      <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>52</v>
+      <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>53</v>
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>54</v>
+      <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>55</v>
+      <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>56</v>
+      <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>57</v>
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>58</v>
+      <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>59</v>
+      <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>60</v>
+      <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>61</v>
+      <c r="A65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>62</v>
+      <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>63</v>
+      <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>64</v>
+      <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>65</v>
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>66</v>
+      <c r="A70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>67</v>
+      <c r="A71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>68</v>
+      <c r="A72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>69</v>
+      <c r="A73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>70</v>
+      <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>71</v>
+      <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>72</v>
+      <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>73</v>
+      <c r="A77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>74</v>
+      <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>75</v>
+      <c r="A79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>76</v>
+      <c r="A80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>77</v>
+      <c r="A81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="A82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>79</v>
+      <c r="A83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>80</v>
+      <c r="A84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>81</v>
+      <c r="A86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>82</v>
+      <c r="A87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>83</v>
+      <c r="A88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>84</v>
+      <c r="A89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>85</v>
+      <c r="A90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>86</v>
+      <c r="A91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>87</v>
+      <c r="A92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>88</v>
+      <c r="A93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>89</v>
+      <c r="A94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>90</v>
+      <c r="A95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>91</v>
+      <c r="A96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>92</v>
+      <c r="A97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>93</v>
+      <c r="A98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>94</v>
+      <c r="A99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>95</v>
+      <c r="A100" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>96</v>
+      <c r="A101" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>97</v>
+      <c r="A102" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>98</v>
+      <c r="A103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>99</v>
+      <c r="A104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>135</v>
+      <c r="A105" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/Job.xlsx
+++ b/src/main/resources/excel/Job.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="312">
   <si>
     <t xml:space="preserve">Hi, are you ready to learn how to add today?</t>
   </si>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">haɪ, ɑr ju ˈrɛdi tu lɜrn haʊ tu æd təˈdeɪ?</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes, I’m ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Sí, estoy listo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jɛs, aɪm ˈrɛdi!</t>
+  </si>
+  <si>
     <t xml:space="preserve">EXAMPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes, I’m ready!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¡Sí, estoy listo!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jɛs, aɪm ˈrɛdi!</t>
   </si>
   <si>
     <t xml:space="preserve">Great! Let’s start with something simple.</t>
@@ -1164,404 +1164,402 @@
   </sheetPr>
   <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="98.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="93.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="85.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="93.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="85.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="58.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F28" s="1"/>
@@ -1570,318 +1568,318 @@
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F51" s="1"/>
@@ -1890,430 +1888,430 @@
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F82" s="1"/>
@@ -2322,322 +2320,322 @@
       <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>257</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>269</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>272</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>275</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>278</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>281</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>287</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>290</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>293</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>302</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>308</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>311</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
